--- a/SrcPercepcionesListX - 2024-01-08T165947.293.xlsx
+++ b/SrcPercepcionesListX - 2024-01-08T165947.293.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910837C3-BE89-4DBB-9709-624D5B4204C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD762C9F-E22E-4078-BD98-403574C58F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2925" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SrcPercepcionesListX" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="#0.00"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,12 @@
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="12">
@@ -222,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -255,6 +261,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +602,8 @@
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="15" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
     <col min="16" max="17" width="14.42578125" customWidth="1"/>
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
@@ -1252,8 +1262,8 @@
       <c r="M14" s="7">
         <v>0.25</v>
       </c>
-      <c r="N14" s="7">
-        <v>7662.38</v>
+      <c r="N14" s="11">
+        <v>-111721.68</v>
       </c>
       <c r="O14" s="8">
         <v>45106</v>
@@ -2988,6 +2998,6 @@
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>